--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1017499.450285573</v>
+        <v>1014297.101266823</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736305</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="D2" t="n">
         <v>655421.0709736305</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169920.8256387118</v>
+        <v>169393.4804246655</v>
       </c>
       <c r="C6" t="n">
-        <v>169920.8256387117</v>
+        <v>169393.4804246655</v>
       </c>
       <c r="D6" t="n">
-        <v>169920.8256387117</v>
+        <v>169393.4804246654</v>
       </c>
       <c r="E6" t="n">
-        <v>-17195.66758983558</v>
+        <v>-17508.17506882631</v>
       </c>
       <c r="F6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="G6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="H6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="I6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="J6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="K6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="L6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="M6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="N6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="O6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
       <c r="P6" t="n">
-        <v>115904.3324101645</v>
+        <v>115591.8249311737</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014297.101266823</v>
+        <v>1028023.459404242</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736305</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
         <v>182912.8770397818</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169393.4804246655</v>
+        <v>169393.4804246656</v>
       </c>
       <c r="C6" t="n">
-        <v>169393.4804246655</v>
+        <v>169393.4804246656</v>
       </c>
       <c r="D6" t="n">
-        <v>169393.4804246654</v>
+        <v>169393.4804246656</v>
       </c>
       <c r="E6" t="n">
-        <v>-17508.17506882631</v>
+        <v>-17508.17506882636</v>
       </c>
       <c r="F6" t="n">
         <v>115591.8249311737</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1028023.459404242</v>
+        <v>944238.0576426161</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736304</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736304</v>
       </c>
       <c r="E2" t="n">
         <v>182912.8770397818</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169393.4804246656</v>
+        <v>169349.3446459841</v>
       </c>
       <c r="C6" t="n">
-        <v>169393.4804246656</v>
+        <v>169349.3446459844</v>
       </c>
       <c r="D6" t="n">
-        <v>169393.4804246656</v>
+        <v>169349.3446459841</v>
       </c>
       <c r="E6" t="n">
-        <v>-17508.17506882636</v>
+        <v>-32318.19190794027</v>
       </c>
       <c r="F6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="G6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="H6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="I6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="J6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="K6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="L6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="M6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="N6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="O6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
       <c r="P6" t="n">
-        <v>115591.8249311737</v>
+        <v>100781.8080920598</v>
       </c>
     </row>
   </sheetData>
